--- a/DATA/RAW/Energy_follow_Up_Survey_2011_mean_temp.xlsx
+++ b/DATA/RAW/Energy_follow_Up_Survey_2011_mean_temp.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Households_energy_wellbeing_local_code\Households_energy_wellbeing\DATA\RAW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90FD4B4-0103-4D95-9BB3-31640A832A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394D60F7-D4D0-4FBB-8764-FCB2B79E92F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-10770" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover_sheet" sheetId="2" r:id="rId1"/>
     <sheet name="by_dwelling_type" sheetId="3" r:id="rId2"/>
-    <sheet name="by_dwellinng_age" sheetId="4" r:id="rId3"/>
+    <sheet name="by_dwelling_age" sheetId="4" r:id="rId3"/>
     <sheet name="by_floor_area" sheetId="5" r:id="rId4"/>
     <sheet name="by_walls_insulation" sheetId="6" r:id="rId5"/>
     <sheet name="by_tenancy" sheetId="7" r:id="rId6"/>
@@ -418,7 +418,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -431,19 +431,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -458,8 +446,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -768,7 +768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA75907F-2BD0-4261-8A48-A3A12EB9B39A}">
   <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
@@ -789,23 +789,23 @@
     <row r="13" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -832,20 +832,20 @@
       <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="20"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="16"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -857,25 +857,25 @@
       <c r="A18" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
     </row>
     <row r="19" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
@@ -908,81 +908,81 @@
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="14"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="13"/>
     </row>
     <row r="22" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
     </row>
     <row r="23" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
     </row>
     <row r="24" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:19" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1118,7 +1118,8 @@
         <v>2</v>
       </c>
       <c r="C2" s="6">
-        <v>18.899999999999999</v>
+        <f>AVERAGE(E2:F2)</f>
+        <v>18.850000000000001</v>
       </c>
       <c r="D2" s="6">
         <f>ROUND((F2-E2)/3.92, 3)</f>
@@ -1161,7 +1162,8 @@
         <v>3</v>
       </c>
       <c r="C3" s="6">
-        <v>19.2</v>
+        <f t="shared" ref="C3:C7" si="0">AVERAGE(E3:F3)</f>
+        <v>19.25</v>
       </c>
       <c r="D3" s="6">
         <f>ROUND((F3-E3)/3.92, 3)</f>
@@ -1204,18 +1206,19 @@
         <v>4</v>
       </c>
       <c r="C4" s="6">
-        <v>18.8</v>
+        <f t="shared" si="0"/>
+        <v>18.775000000000002</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" ref="D4:D6" si="0">ROUND((F4-E4)/3.92, 3)</f>
+        <f t="shared" ref="D4:D6" si="1">ROUND((F4-E4)/3.92, 3)</f>
         <v>0.16600000000000001</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" ref="E4:E6" si="1">AVERAGE(G4,I4)</f>
+        <f t="shared" ref="E4:E6" si="2">AVERAGE(G4,I4)</f>
         <v>18.450000000000003</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F6" si="2">AVERAGE(H4,J4)</f>
+        <f t="shared" ref="F4:F6" si="3">AVERAGE(H4,J4)</f>
         <v>19.100000000000001</v>
       </c>
       <c r="G4" s="6">
@@ -1247,18 +1250,19 @@
         <v>5</v>
       </c>
       <c r="C5" s="6">
-        <v>18.600000000000001</v>
+        <f t="shared" si="0"/>
+        <v>18.574999999999999</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16600000000000001</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.25</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.899999999999999</v>
       </c>
       <c r="G5" s="6">
@@ -1290,18 +1294,19 @@
         <v>6</v>
       </c>
       <c r="C6" s="6">
-        <v>19.5</v>
+        <f t="shared" si="0"/>
+        <v>19.625</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.26800000000000002</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.100000000000001</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.149999999999999</v>
       </c>
       <c r="G6" s="6">
@@ -1333,18 +1338,19 @@
         <v>7</v>
       </c>
       <c r="C7" s="6">
-        <v>19.5</v>
+        <f t="shared" si="0"/>
+        <v>19.625</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" ref="D7" si="3">ROUND((F7-E7)/3.92, 3)</f>
+        <f t="shared" ref="D7" si="4">ROUND((F7-E7)/3.92, 3)</f>
         <v>0.26800000000000002</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" ref="E7" si="4">AVERAGE(G7,I7)</f>
+        <f t="shared" ref="E7" si="5">AVERAGE(G7,I7)</f>
         <v>19.100000000000001</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" ref="F7" si="5">AVERAGE(H7,J7)</f>
+        <f t="shared" ref="F7" si="6">AVERAGE(H7,J7)</f>
         <v>20.149999999999999</v>
       </c>
       <c r="G7" s="6">
@@ -2163,7 +2169,7 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2225,7 +2231,8 @@
         <v>11</v>
       </c>
       <c r="C2" s="6">
-        <v>18.100000000000001</v>
+        <f>AVERAGE(E2:F2)</f>
+        <v>18.149999999999999</v>
       </c>
       <c r="D2" s="6">
         <f>ROUND((F2-E2)/3.92, 3)</f>
@@ -2265,7 +2272,8 @@
         <v>12</v>
       </c>
       <c r="C3" s="6">
-        <v>18.100000000000001</v>
+        <f t="shared" ref="C3:C10" si="0">AVERAGE(E3:F3)</f>
+        <v>18.149999999999999</v>
       </c>
       <c r="D3" s="6">
         <f>ROUND((F3-E3)/3.92, 3)</f>
@@ -2305,18 +2313,19 @@
         <v>13</v>
       </c>
       <c r="C4" s="6">
-        <v>18.100000000000001</v>
+        <f t="shared" si="0"/>
+        <v>18.149999999999999</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" ref="D4:D10" si="0">ROUND((F4-E4)/3.92, 3)</f>
+        <f t="shared" ref="D4:D10" si="1">ROUND((F4-E4)/3.92, 3)</f>
         <v>0.20399999999999999</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" ref="E4:F10" si="1">AVERAGE(G4,I4)</f>
+        <f t="shared" ref="E4:F10" si="2">AVERAGE(G4,I4)</f>
         <v>17.75</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.549999999999997</v>
       </c>
       <c r="G4" s="6">
@@ -2345,18 +2354,19 @@
         <v>14</v>
       </c>
       <c r="C5" s="6">
-        <v>18.899999999999999</v>
+        <f t="shared" si="0"/>
+        <v>18.925000000000001</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.217</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.5</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.350000000000001</v>
       </c>
       <c r="G5" s="6">
@@ -2385,18 +2395,19 @@
         <v>15</v>
       </c>
       <c r="C6" s="6">
+        <f t="shared" si="0"/>
         <v>19.2</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.153</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.899999999999999</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.5</v>
       </c>
       <c r="G6" s="6">
@@ -2425,18 +2436,19 @@
         <v>16</v>
       </c>
       <c r="C7" s="6">
+        <f t="shared" si="0"/>
         <v>19.100000000000001</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20399999999999999</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.7</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.5</v>
       </c>
       <c r="G7" s="6">
@@ -2465,18 +2477,19 @@
         <v>17</v>
       </c>
       <c r="C8" s="6">
-        <v>19.8</v>
+        <f t="shared" si="0"/>
+        <v>19.875</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.34399999999999997</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.2</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.55</v>
       </c>
       <c r="G8" s="6">
@@ -2505,18 +2518,19 @@
         <v>18</v>
       </c>
       <c r="C9" s="6">
+        <f t="shared" si="0"/>
         <v>19.3</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.850000000000001</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.75</v>
       </c>
       <c r="G9" s="6">
@@ -2545,18 +2559,19 @@
         <v>19</v>
       </c>
       <c r="C10" s="6">
-        <v>19.2</v>
+        <f t="shared" si="0"/>
+        <v>19.149999999999999</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.7</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.600000000000001</v>
       </c>
       <c r="G10" s="6">
@@ -3201,7 +3216,7 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3263,7 +3278,8 @@
         <v>22</v>
       </c>
       <c r="C2" s="6">
-        <v>19.7</v>
+        <f>AVERAGE(E2:F2)</f>
+        <v>19.75</v>
       </c>
       <c r="D2" s="6">
         <f>ROUND((F2-E2)/3.92, 3)</f>
@@ -3303,7 +3319,8 @@
         <v>23</v>
       </c>
       <c r="C3" s="6">
-        <v>19.100000000000001</v>
+        <f t="shared" ref="C3:C6" si="0">AVERAGE(E3:F3)</f>
+        <v>19.149999999999999</v>
       </c>
       <c r="D3" s="6">
         <f>ROUND((F3-E3)/3.92, 3)</f>
@@ -3343,18 +3360,19 @@
         <v>24</v>
       </c>
       <c r="C4" s="6">
-        <v>18.8</v>
+        <f t="shared" si="0"/>
+        <v>18.875</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" ref="D4:D10" si="0">ROUND((F4-E4)/3.92, 3)</f>
+        <f t="shared" ref="D4:D6" si="1">ROUND((F4-E4)/3.92, 3)</f>
         <v>0.16600000000000001</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" ref="E4:F10" si="1">AVERAGE(G4,I4)</f>
+        <f t="shared" ref="E4:F6" si="2">AVERAGE(G4,I4)</f>
         <v>18.549999999999997</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.2</v>
       </c>
       <c r="G4" s="6">
@@ -3383,31 +3401,32 @@
         <v>25</v>
       </c>
       <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="1"/>
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="2"/>
+        <v>18.5</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="2"/>
+        <v>19.3</v>
+      </c>
+      <c r="G5" s="6">
+        <v>18.7</v>
+      </c>
+      <c r="H5" s="6">
+        <v>19.5</v>
+      </c>
+      <c r="I5" s="6">
+        <v>18.3</v>
+      </c>
+      <c r="J5" s="6">
         <v>19.100000000000001</v>
-      </c>
-      <c r="D5" s="6">
-        <f t="shared" si="0"/>
-        <v>0.191</v>
-      </c>
-      <c r="E5" s="6">
-        <f t="shared" si="1"/>
-        <v>18.75</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>19.5</v>
-      </c>
-      <c r="G5" s="6">
-        <v>19</v>
-      </c>
-      <c r="H5" s="6">
-        <v>19.8</v>
-      </c>
-      <c r="I5" s="6">
-        <v>18.5</v>
-      </c>
-      <c r="J5" s="6">
-        <v>19.2</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -3423,18 +3442,19 @@
         <v>26</v>
       </c>
       <c r="C6" s="6">
-        <v>18.7</v>
+        <f t="shared" si="0"/>
+        <v>18.625</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20399999999999999</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.225000000000001</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.024999999999999</v>
       </c>
       <c r="G6" s="6">
@@ -4147,7 +4167,7 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4209,7 +4229,8 @@
         <v>29</v>
       </c>
       <c r="C2" s="6">
-        <v>19.100000000000001</v>
+        <f>AVERAGE(E2:F2)</f>
+        <v>19.174999999999997</v>
       </c>
       <c r="D2" s="6">
         <f>ROUND((F2-E2)/3.92, 3)</f>
@@ -4249,7 +4270,8 @@
         <v>30</v>
       </c>
       <c r="C3" s="6">
-        <v>18.899999999999999</v>
+        <f>AVERAGE(E3:F3)</f>
+        <v>18.875</v>
       </c>
       <c r="D3" s="6">
         <f>ROUND((F3-E3)/3.92, 3)</f>
@@ -5023,7 +5045,7 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5085,6 +5107,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="6">
+        <f>AVERAGE(E2:F2)</f>
         <v>18.8</v>
       </c>
       <c r="D2" s="6">
@@ -5125,6 +5148,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="6">
+        <f t="shared" ref="C3:C5" si="0">AVERAGE(E3:F3)</f>
         <v>18.899999999999999</v>
       </c>
       <c r="D3" s="6">
@@ -5165,18 +5189,19 @@
         <v>35</v>
       </c>
       <c r="C4" s="6">
-        <v>19.7</v>
+        <f t="shared" si="0"/>
+        <v>19.8</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" ref="D4:D6" si="0">ROUND((F4-E4)/3.92, 3)</f>
+        <f t="shared" ref="D4:D5" si="1">ROUND((F4-E4)/3.92, 3)</f>
         <v>0.30599999999999999</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" ref="E4:F6" si="1">AVERAGE(G4,I4)</f>
+        <f t="shared" ref="E4:F5" si="2">AVERAGE(G4,I4)</f>
         <v>19.200000000000003</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.399999999999999</v>
       </c>
       <c r="G4" s="6">
@@ -5205,18 +5230,19 @@
         <v>36</v>
       </c>
       <c r="C5" s="6">
-        <v>19.600000000000001</v>
+        <f t="shared" si="0"/>
+        <v>19.649999999999999</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.2</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.100000000000001</v>
       </c>
       <c r="G5" s="6">
@@ -5945,8 +5971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCA4E34-7EE3-4FB5-A14A-B0595A29D10A}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6008,7 +6034,8 @@
         <v>1</v>
       </c>
       <c r="C2" s="6">
-        <v>18.600000000000001</v>
+        <f>AVERAGE(F2:G2)</f>
+        <v>18.825000000000003</v>
       </c>
       <c r="D2" s="6">
         <f>ROUND((F2-E2)/3.92, 3)</f>
@@ -6048,7 +6075,8 @@
         <v>2</v>
       </c>
       <c r="C3" s="6">
-        <v>19.100000000000001</v>
+        <f t="shared" ref="C3:C6" si="0">AVERAGE(F3:G3)</f>
+        <v>19.175000000000001</v>
       </c>
       <c r="D3" s="6">
         <f>ROUND((F3-E3)/3.92, 3)</f>
@@ -6088,18 +6116,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="6">
-        <v>19.2</v>
+        <f t="shared" si="0"/>
+        <v>19.274999999999999</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" ref="D4:D5" si="0">ROUND((F4-E4)/3.92, 3)</f>
+        <f t="shared" ref="D4:D5" si="1">ROUND((F4-E4)/3.92, 3)</f>
         <v>0.17899999999999999</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" ref="E4:F5" si="1">AVERAGE(G4,I4)</f>
+        <f t="shared" ref="E4:F5" si="2">AVERAGE(G4,I4)</f>
         <v>18.850000000000001</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.55</v>
       </c>
       <c r="G4" s="6">
@@ -6128,18 +6157,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="6">
-        <v>19.100000000000001</v>
+        <f t="shared" si="0"/>
+        <v>19.075000000000003</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20399999999999999</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.649999999999999</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.450000000000003</v>
       </c>
       <c r="G5" s="6">
@@ -6168,18 +6198,19 @@
         <v>39</v>
       </c>
       <c r="C6" s="6">
-        <v>19.100000000000001</v>
+        <f t="shared" si="0"/>
+        <v>19.175000000000001</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" ref="D6" si="2">ROUND((F6-E6)/3.92, 3)</f>
+        <f t="shared" ref="D6" si="3">ROUND((F6-E6)/3.92, 3)</f>
         <v>0.31900000000000001</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" ref="E6" si="3">AVERAGE(G6,I6)</f>
+        <f t="shared" ref="E6" si="4">AVERAGE(G6,I6)</f>
         <v>18.5</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" ref="F6" si="4">AVERAGE(H6,J6)</f>
+        <f t="shared" ref="F6" si="5">AVERAGE(H6,J6)</f>
         <v>19.75</v>
       </c>
       <c r="G6" s="6">
@@ -6892,7 +6923,7 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6954,6 +6985,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="6">
+        <f>AVERAGE(E2:F2)</f>
         <v>19.3</v>
       </c>
       <c r="D2" s="6">
@@ -6994,7 +7026,8 @@
         <v>43</v>
       </c>
       <c r="C3" s="6">
-        <v>18.399999999999999</v>
+        <f>AVERAGE(E3:F3)</f>
+        <v>18.45</v>
       </c>
       <c r="D3" s="6">
         <f>ROUND((F3-E3)/3.92, 3)</f>

--- a/DATA/RAW/Energy_follow_Up_Survey_2011_mean_temp.xlsx
+++ b/DATA/RAW/Energy_follow_Up_Survey_2011_mean_temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Households_energy_wellbeing_local_code\Households_energy_wellbeing\DATA\RAW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394D60F7-D4D0-4FBB-8764-FCB2B79E92F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEF4E90-1E0D-4242-88EB-7F26F399EA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10770" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46560" yWindow="-10260" windowWidth="20085" windowHeight="20085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover_sheet" sheetId="2" r:id="rId1"/>
@@ -201,46 +201,23 @@
     <t>This workbook reports indoor dwelling temperature statistics (mean and standard deviation) given information on  dwelling and household  variables.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Data where sourced from the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Energy Follow-Up Survey 2011 - Report 2: Mean household temperatures</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>https://assets.publishing.service.gov.uk/media/5a7c90c1e5274a0bb7cb7e52/3_Metered_fuel_consumption.pdf</t>
   </si>
   <si>
     <t>Indoor temperatures values are based on average logger measurments taken at  20 minute intervals over the heating season period (October 2010 to April 2011).</t>
   </si>
   <si>
-    <t>The "Dwelling" temperature values were obtained by averaging logged measurments taken from the livingroom and Zone 2 (i.e. main beedrom plus hallway). Please refer to the above link for further methodological details.</t>
+    <t>Data where sourced from the Energy Follow-Up Survey 2011 - Report 2: Mean household temperatures.</t>
+  </si>
+  <si>
+    <t>Dwelling temperature values were obtained by averaging logged measurments taken from the livingroom and Zone 2 (i.e. main beedrom plus hallway). Please refer to the above link for further methodological details.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -279,25 +256,29 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -310,7 +291,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -397,7 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -425,40 +407,50 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -766,236 +758,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA75907F-2BD0-4261-8A48-A3A12EB9B39A}">
-  <dimension ref="A1:S75"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+    <row r="1" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-    </row>
-    <row r="16" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-    </row>
-    <row r="17" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-    </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="19" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+    </row>
+    <row r="5" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+    </row>
+    <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+    </row>
+    <row r="7" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-    </row>
-    <row r="19" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="13"/>
-    </row>
-    <row r="22" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-    </row>
-    <row r="23" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-    </row>
-    <row r="24" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+    </row>
+    <row r="8" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+    </row>
+    <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+    </row>
+    <row r="10" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-    </row>
-    <row r="26" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:19" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+    </row>
+    <row r="12" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="1:19" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="22.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1004,46 +1036,32 @@
     <row r="43" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="22.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="43.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="22.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="60" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="43.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="22.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="A24:L25"/>
-    <mergeCell ref="A21:L22"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="A10:L11"/>
+    <mergeCell ref="A7:L8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1" xr:uid="{F8292D2B-C798-4411-9FED-10CECE1CF80D}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{F8292D2B-C798-4411-9FED-10CECE1CF80D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5971,7 +5989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCA4E34-7EE3-4FB5-A14A-B0595A29D10A}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>

--- a/DATA/RAW/Energy_follow_Up_Survey_2011_mean_temp.xlsx
+++ b/DATA/RAW/Energy_follow_Up_Survey_2011_mean_temp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Households_energy_wellbeing_local_code\Households_energy_wellbeing\DATA\RAW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berna\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEF4E90-1E0D-4242-88EB-7F26F399EA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE31D0F8-65F5-429D-8E9E-EF1EE60FB3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46560" yWindow="-10260" windowWidth="20085" windowHeight="20085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-10770" windowWidth="38640" windowHeight="21240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover_sheet" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="58">
   <si>
     <t>DwellingType_value_num</t>
   </si>
@@ -174,25 +174,7 @@
     <t>Under-occupied</t>
   </si>
   <si>
-    <t>Living_room_2.5%_CI</t>
-  </si>
-  <si>
-    <t>Living_room_97.5%_CI</t>
-  </si>
-  <si>
-    <t>Dwelling_2.5%_CI</t>
-  </si>
-  <si>
-    <t>Dwelling_97.5%_CI</t>
-  </si>
-  <si>
     <t>Dwelling_st_dev_temp</t>
-  </si>
-  <si>
-    <t>Hallway_and_Beedroom_2.5%_CI</t>
-  </si>
-  <si>
-    <t>Hallway_and_Beedroom_97.5%_CI</t>
   </si>
   <si>
     <t xml:space="preserve">URL: </t>
@@ -211,6 +193,27 @@
   </si>
   <si>
     <t>Dwelling temperature values were obtained by averaging logged measurments taken from the livingroom and Zone 2 (i.e. main beedrom plus hallway). Please refer to the above link for further methodological details.</t>
+  </si>
+  <si>
+    <t>Sample size</t>
+  </si>
+  <si>
+    <t>Dwelling_lower_95%_CI</t>
+  </si>
+  <si>
+    <t>Dwelling_upper_95%_CI</t>
+  </si>
+  <si>
+    <t>Living_room_lower_95%_CI</t>
+  </si>
+  <si>
+    <t>Living_room_upper_95%_CI</t>
+  </si>
+  <si>
+    <t>Hallway_and_Beedroom_lower_95%_CI</t>
+  </si>
+  <si>
+    <t>Hallway_and_Beedroom_upper_95%_CI</t>
   </si>
 </sst>
 </file>
@@ -413,16 +416,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -432,7 +438,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -440,12 +449,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -760,138 +763,138 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA75907F-2BD0-4261-8A48-A3A12EB9B39A}">
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="A1" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="A3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
+      <c r="A4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
     </row>
     <row r="5" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
     </row>
     <row r="7" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -904,9 +907,9 @@
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
     </row>
     <row r="8" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26"/>
@@ -921,30 +924,30 @@
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
       <c r="L8" s="26"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
     </row>
     <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
@@ -952,7 +955,7 @@
     </row>
     <row r="10" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -965,9 +968,9 @@
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
@@ -982,9 +985,9 @@
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
       <c r="L11" s="26"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
     </row>
     <row r="12" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -1073,7 +1076,7 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1081,11 +1084,12 @@
     <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="20.44140625" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
@@ -1099,27 +1103,29 @@
         <v>8</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
@@ -1140,8 +1146,8 @@
         <v>18.850000000000001</v>
       </c>
       <c r="D2" s="6">
-        <f>ROUND((F2-E2)/3.92, 3)</f>
-        <v>0.28100000000000003</v>
+        <f>ROUND(SQRT(K2)*(F2-E2)/3.92, 3)</f>
+        <v>2.556</v>
       </c>
       <c r="E2" s="6">
         <f>AVERAGE(G2,I2)</f>
@@ -1163,7 +1169,9 @@
       <c r="J2" s="6">
         <v>19.3</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="6">
+        <v>83</v>
+      </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -1184,8 +1192,8 @@
         <v>19.25</v>
       </c>
       <c r="D3" s="6">
-        <f>ROUND((F3-E3)/3.92, 3)</f>
-        <v>0.17899999999999999</v>
+        <f t="shared" ref="D3:D7" si="1">ROUND(SQRT(K3)*(F3-E3)/3.92, 3)</f>
+        <v>1.988</v>
       </c>
       <c r="E3" s="6">
         <f>AVERAGE(G3,I3)</f>
@@ -1207,7 +1215,9 @@
       <c r="J3" s="6">
         <v>19.3</v>
       </c>
-      <c r="K3" s="6"/>
+      <c r="K3" s="6">
+        <v>124</v>
+      </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -1228,8 +1238,8 @@
         <v>18.775000000000002</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" ref="D4:D6" si="1">ROUND((F4-E4)/3.92, 3)</f>
-        <v>0.16600000000000001</v>
+        <f t="shared" si="1"/>
+        <v>2.59</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" ref="E4:E6" si="2">AVERAGE(G4,I4)</f>
@@ -1251,7 +1261,9 @@
       <c r="J4" s="6">
         <v>18.899999999999999</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="K4" s="6">
+        <v>244</v>
+      </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
@@ -1273,7 +1285,7 @@
       </c>
       <c r="D5" s="6">
         <f t="shared" si="1"/>
-        <v>0.16600000000000001</v>
+        <v>1.9830000000000001</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="2"/>
@@ -1295,7 +1307,9 @@
       <c r="J5" s="6">
         <v>18.8</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="6">
+        <v>143</v>
+      </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -1317,7 +1331,7 @@
       </c>
       <c r="D6" s="6">
         <f t="shared" si="1"/>
-        <v>0.26800000000000002</v>
+        <v>3.03</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="2"/>
@@ -1339,7 +1353,9 @@
       <c r="J6" s="6">
         <v>19.8</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="6">
+        <v>128</v>
+      </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -1360,15 +1376,15 @@
         <v>19.625</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" ref="D7" si="4">ROUND((F7-E7)/3.92, 3)</f>
-        <v>0.26800000000000002</v>
+        <f t="shared" si="1"/>
+        <v>3.03</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" ref="E7" si="5">AVERAGE(G7,I7)</f>
+        <f t="shared" ref="E7" si="4">AVERAGE(G7,I7)</f>
         <v>19.100000000000001</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" ref="F7" si="6">AVERAGE(H7,J7)</f>
+        <f t="shared" ref="F7" si="5">AVERAGE(H7,J7)</f>
         <v>20.149999999999999</v>
       </c>
       <c r="G7" s="6">
@@ -1383,7 +1399,9 @@
       <c r="J7" s="6">
         <v>19.8</v>
       </c>
-      <c r="K7" s="6"/>
+      <c r="K7" s="6">
+        <v>128</v>
+      </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -2187,7 +2205,7 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2196,12 +2214,13 @@
     <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
@@ -2215,27 +2234,29 @@
         <v>8</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="4"/>
@@ -2253,8 +2274,8 @@
         <v>18.149999999999999</v>
       </c>
       <c r="D2" s="6">
-        <f>ROUND((F2-E2)/3.92, 3)</f>
-        <v>0.20399999999999999</v>
+        <f>ROUND(SQRT(K2)*(F2-E2)/3.92, 3)</f>
+        <v>1.323</v>
       </c>
       <c r="E2" s="6">
         <f>AVERAGE(G2,I2)</f>
@@ -2276,7 +2297,9 @@
       <c r="J2" s="6">
         <v>18.399999999999999</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="6">
+        <v>42</v>
+      </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="4"/>
@@ -2294,8 +2317,8 @@
         <v>18.149999999999999</v>
       </c>
       <c r="D3" s="6">
-        <f>ROUND((F3-E3)/3.92, 3)</f>
-        <v>0.20399999999999999</v>
+        <f t="shared" ref="D3:D10" si="1">ROUND(SQRT(K3)*(F3-E3)/3.92, 3)</f>
+        <v>1.323</v>
       </c>
       <c r="E3" s="6">
         <f>AVERAGE(G3,I3)</f>
@@ -2317,7 +2340,9 @@
       <c r="J3" s="6">
         <v>18.399999999999999</v>
       </c>
-      <c r="K3" s="6"/>
+      <c r="K3" s="6">
+        <v>42</v>
+      </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="4"/>
@@ -2335,8 +2360,8 @@
         <v>18.149999999999999</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" ref="D4:D10" si="1">ROUND((F4-E4)/3.92, 3)</f>
-        <v>0.20399999999999999</v>
+        <f t="shared" si="1"/>
+        <v>1.323</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" ref="E4:F10" si="2">AVERAGE(G4,I4)</f>
@@ -2358,7 +2383,9 @@
       <c r="J4" s="6">
         <v>18.399999999999999</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="K4" s="6">
+        <v>42</v>
+      </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="4"/>
@@ -2377,7 +2404,7 @@
       </c>
       <c r="D5" s="6">
         <f t="shared" si="1"/>
-        <v>0.217</v>
+        <v>2.444</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="2"/>
@@ -2399,7 +2426,9 @@
       <c r="J5" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="6">
+        <v>127</v>
+      </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="4"/>
@@ -2418,7 +2447,7 @@
       </c>
       <c r="D6" s="6">
         <f t="shared" si="1"/>
-        <v>0.153</v>
+        <v>2.2130000000000001</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="2"/>
@@ -2440,7 +2469,9 @@
       <c r="J6" s="6">
         <v>19.2</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="6">
+        <v>209</v>
+      </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="4"/>
@@ -2459,7 +2490,7 @@
       </c>
       <c r="D7" s="6">
         <f t="shared" si="1"/>
-        <v>0.20399999999999999</v>
+        <v>2.3969999999999998</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="2"/>
@@ -2481,7 +2512,9 @@
       <c r="J7" s="6">
         <v>19.3</v>
       </c>
-      <c r="K7" s="6"/>
+      <c r="K7" s="6">
+        <v>138</v>
+      </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="4"/>
@@ -2500,7 +2533,7 @@
       </c>
       <c r="D8" s="6">
         <f t="shared" si="1"/>
-        <v>0.34399999999999997</v>
+        <v>2.84</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="2"/>
@@ -2522,7 +2555,9 @@
       <c r="J8" s="6">
         <v>20.3</v>
       </c>
-      <c r="K8" s="6"/>
+      <c r="K8" s="6">
+        <v>68</v>
+      </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="4"/>
@@ -2541,7 +2576,7 @@
       </c>
       <c r="D9" s="6">
         <f t="shared" si="1"/>
-        <v>0.23</v>
+        <v>2.0409999999999999</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="2"/>
@@ -2563,7 +2598,9 @@
       <c r="J9" s="6">
         <v>19.5</v>
       </c>
-      <c r="K9" s="6"/>
+      <c r="K9" s="6">
+        <v>79</v>
+      </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="4"/>
@@ -2582,7 +2619,7 @@
       </c>
       <c r="D10" s="6">
         <f t="shared" si="1"/>
-        <v>0.23</v>
+        <v>1.988</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="2"/>
@@ -2604,7 +2641,9 @@
       <c r="J10" s="6">
         <v>19.5</v>
       </c>
-      <c r="K10" s="6"/>
+      <c r="K10" s="6">
+        <v>75</v>
+      </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="4"/>
@@ -3234,7 +3273,7 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3243,12 +3282,13 @@
     <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
@@ -3262,27 +3302,29 @@
         <v>8</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="4"/>
@@ -3300,8 +3342,8 @@
         <v>19.75</v>
       </c>
       <c r="D2" s="6">
-        <f>ROUND((F2-E2)/3.92, 3)</f>
-        <v>0.28100000000000003</v>
+        <f>ROUND(SQRT(K2)*(F2-E2)/3.92, 3)</f>
+        <v>2.6469999999999998</v>
       </c>
       <c r="E2" s="6">
         <f>AVERAGE(G2,I2)</f>
@@ -3323,7 +3365,9 @@
       <c r="J2" s="6">
         <v>20</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="6">
+        <v>89</v>
+      </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="4"/>
@@ -3341,8 +3385,8 @@
         <v>19.149999999999999</v>
       </c>
       <c r="D3" s="6">
-        <f>ROUND((F3-E3)/3.92, 3)</f>
-        <v>0.20399999999999999</v>
+        <f t="shared" ref="D3:D6" si="1">ROUND(SQRT(K3)*(F3-E3)/3.92, 3)</f>
+        <v>2.8639999999999999</v>
       </c>
       <c r="E3" s="6">
         <f>AVERAGE(G3,I3)</f>
@@ -3364,7 +3408,9 @@
       <c r="J3" s="6">
         <v>19.3</v>
       </c>
-      <c r="K3" s="6"/>
+      <c r="K3" s="6">
+        <v>197</v>
+      </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="4"/>
@@ -3382,8 +3428,8 @@
         <v>18.875</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" ref="D4:D6" si="1">ROUND((F4-E4)/3.92, 3)</f>
-        <v>0.16600000000000001</v>
+        <f t="shared" si="1"/>
+        <v>7.6529999999999996</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" ref="E4:F6" si="2">AVERAGE(G4,I4)</f>
@@ -3405,7 +3451,9 @@
       <c r="J4" s="6">
         <v>19</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="K4" s="6">
+        <v>2130</v>
+      </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="4"/>
@@ -3424,7 +3472,7 @@
       </c>
       <c r="D5" s="6">
         <f t="shared" si="1"/>
-        <v>0.20399999999999999</v>
+        <v>2.226</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="2"/>
@@ -3446,7 +3494,9 @@
       <c r="J5" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="6">
+        <v>119</v>
+      </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="4"/>
@@ -3465,7 +3515,7 @@
       </c>
       <c r="D6" s="6">
         <f t="shared" si="1"/>
-        <v>0.20399999999999999</v>
+        <v>2.9220000000000002</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="2"/>
@@ -3487,7 +3537,9 @@
       <c r="J6" s="6">
         <v>18.899999999999999</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="6">
+        <v>205</v>
+      </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="4"/>
@@ -4185,7 +4237,7 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4194,8 +4246,8 @@
     <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.44140625" bestFit="1" customWidth="1"/>
@@ -4213,27 +4265,29 @@
         <v>8</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="4"/>
@@ -4251,8 +4305,8 @@
         <v>19.174999999999997</v>
       </c>
       <c r="D2" s="6">
-        <f>ROUND((F2-E2)/3.92, 3)</f>
-        <v>0.115</v>
+        <f>ROUND(SQRT(K2)*(F2-E2)/3.92, 3)</f>
+        <v>2.2469999999999999</v>
       </c>
       <c r="E2" s="6">
         <f>AVERAGE(G2,I2)</f>
@@ -4274,7 +4328,9 @@
       <c r="J2" s="6">
         <v>19.2</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="6">
+        <v>383</v>
+      </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="4"/>
@@ -4292,8 +4348,8 @@
         <v>18.875</v>
       </c>
       <c r="D3" s="6">
-        <f>ROUND((F3-E3)/3.92, 3)</f>
-        <v>0.115</v>
+        <f>ROUND(SQRT(K3)*(F3-E3)/3.92, 3)</f>
+        <v>2.4079999999999999</v>
       </c>
       <c r="E3" s="6">
         <f>AVERAGE(G3,I3)</f>
@@ -4315,7 +4371,9 @@
       <c r="J3" s="6">
         <v>18.899999999999999</v>
       </c>
-      <c r="K3" s="6"/>
+      <c r="K3" s="6">
+        <v>440</v>
+      </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="4"/>
@@ -5063,7 +5121,7 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5091,27 +5149,29 @@
         <v>8</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="4"/>
@@ -5129,8 +5189,8 @@
         <v>18.8</v>
       </c>
       <c r="D2" s="6">
-        <f>ROUND((F2-E2)/3.92, 3)</f>
-        <v>0.10199999999999999</v>
+        <f>ROUND(SQRT(K2)*(F2-E2)/3.92, 3)</f>
+        <v>2.3359999999999999</v>
       </c>
       <c r="E2" s="6">
         <f>AVERAGE(G2,I2)</f>
@@ -5152,7 +5212,9 @@
       <c r="J2" s="6">
         <v>18.8</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="6">
+        <v>524</v>
+      </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="4"/>
@@ -5170,8 +5232,8 @@
         <v>18.899999999999999</v>
       </c>
       <c r="D3" s="6">
-        <f>ROUND((F3-E3)/3.92, 3)</f>
-        <v>0.30599999999999999</v>
+        <f t="shared" ref="D3:D5" si="1">ROUND(SQRT(K3)*(F3-E3)/3.92, 3)</f>
+        <v>2.4489999999999998</v>
       </c>
       <c r="E3" s="6">
         <f>AVERAGE(G3,I3)</f>
@@ -5193,7 +5255,9 @@
       <c r="J3" s="6">
         <v>19.2</v>
       </c>
-      <c r="K3" s="6"/>
+      <c r="K3" s="6">
+        <v>64</v>
+      </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="4"/>
@@ -5211,8 +5275,8 @@
         <v>19.8</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" ref="D4:D5" si="1">ROUND((F4-E4)/3.92, 3)</f>
-        <v>0.30599999999999999</v>
+        <f t="shared" si="1"/>
+        <v>3.4630000000000001</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" ref="E4:F5" si="2">AVERAGE(G4,I4)</f>
@@ -5234,7 +5298,9 @@
       <c r="J4" s="6">
         <v>20</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="K4" s="6">
+        <v>128</v>
+      </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="4"/>
@@ -5253,7 +5319,7 @@
       </c>
       <c r="D5" s="6">
         <f t="shared" si="1"/>
-        <v>0.23</v>
+        <v>2.375</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="2"/>
@@ -5275,7 +5341,9 @@
       <c r="J5" s="6">
         <v>19.8</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="6">
+        <v>107</v>
+      </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="4"/>
@@ -5990,7 +6058,7 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6018,27 +6086,29 @@
         <v>8</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="4"/>
@@ -6056,8 +6126,8 @@
         <v>18.825000000000003</v>
       </c>
       <c r="D2" s="6">
-        <f>ROUND((F2-E2)/3.92, 3)</f>
-        <v>0.191</v>
+        <f>ROUND(SQRT(K2)*(F2-E2)/3.92, 3)</f>
+        <v>2.9449999999999998</v>
       </c>
       <c r="E2" s="6">
         <f>AVERAGE(G2,I2)</f>
@@ -6079,7 +6149,9 @@
       <c r="J2" s="6">
         <v>18.8</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="6">
+        <v>237</v>
+      </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="4"/>
@@ -6097,8 +6169,8 @@
         <v>19.175000000000001</v>
       </c>
       <c r="D3" s="6">
-        <f>ROUND((F3-E3)/3.92, 3)</f>
-        <v>0.128</v>
+        <f t="shared" ref="D3:D6" si="1">ROUND(SQRT(K3)*(F3-E3)/3.92, 3)</f>
+        <v>2.2200000000000002</v>
       </c>
       <c r="E3" s="6">
         <f>AVERAGE(G3,I3)</f>
@@ -6120,7 +6192,9 @@
       <c r="J3" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="K3" s="6"/>
+      <c r="K3" s="6">
+        <v>303</v>
+      </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="4"/>
@@ -6138,8 +6212,8 @@
         <v>19.274999999999999</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" ref="D4:D5" si="1">ROUND((F4-E4)/3.92, 3)</f>
-        <v>0.17899999999999999</v>
+        <f t="shared" si="1"/>
+        <v>1.98</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" ref="E4:F5" si="2">AVERAGE(G4,I4)</f>
@@ -6161,7 +6235,9 @@
       <c r="J4" s="6">
         <v>19.3</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="K4" s="6">
+        <v>123</v>
+      </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="4"/>
@@ -6180,7 +6256,7 @@
       </c>
       <c r="D5" s="6">
         <f t="shared" si="1"/>
-        <v>0.20399999999999999</v>
+        <v>2.1789999999999998</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="2"/>
@@ -6202,7 +6278,9 @@
       <c r="J5" s="6">
         <v>19.3</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="6">
+        <v>114</v>
+      </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="4"/>
@@ -6220,15 +6298,15 @@
         <v>19.175000000000001</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" ref="D6" si="3">ROUND((F6-E6)/3.92, 3)</f>
-        <v>0.31900000000000001</v>
+        <f t="shared" si="1"/>
+        <v>2.1629999999999998</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" ref="E6" si="4">AVERAGE(G6,I6)</f>
+        <f t="shared" ref="E6" si="3">AVERAGE(G6,I6)</f>
         <v>18.5</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" ref="F6" si="5">AVERAGE(H6,J6)</f>
+        <f t="shared" ref="F6" si="4">AVERAGE(H6,J6)</f>
         <v>19.75</v>
       </c>
       <c r="G6" s="6">
@@ -6243,7 +6321,9 @@
       <c r="J6" s="6">
         <v>19.600000000000001</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="6">
+        <v>46</v>
+      </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="4"/>
@@ -6940,8 +7020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B2ADDF-06E1-489C-9519-869E806912D0}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6969,27 +7049,29 @@
         <v>8</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="4"/>
@@ -7007,8 +7089,8 @@
         <v>19.3</v>
       </c>
       <c r="D2" s="6">
-        <f>ROUND((F2-E2)/3.92, 3)</f>
-        <v>0.10199999999999999</v>
+        <f>ROUND(SQRT(K2)*(F2-E2)/3.92, 3)</f>
+        <v>2.3359999999999999</v>
       </c>
       <c r="E2" s="6">
         <f>AVERAGE(G2,I2)</f>
@@ -7030,7 +7112,9 @@
       <c r="J2" s="6">
         <v>19.3</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="6">
+        <v>524</v>
+      </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="4"/>
@@ -7048,8 +7132,8 @@
         <v>18.45</v>
       </c>
       <c r="D3" s="6">
-        <f>ROUND((F3-E3)/3.92, 3)</f>
-        <v>0.128</v>
+        <f>ROUND(SQRT(K3)*(F3-E3)/3.92, 3)</f>
+        <v>2.206</v>
       </c>
       <c r="E3" s="6">
         <f>AVERAGE(G3,I3)</f>
@@ -7071,7 +7155,9 @@
       <c r="J3" s="6">
         <v>18.5</v>
       </c>
-      <c r="K3" s="6"/>
+      <c r="K3" s="6">
+        <v>299</v>
+      </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="4"/>
